--- a/6502 ROR Test Board BOM V2.0S.xlsx
+++ b/6502 ROR Test Board BOM V2.0S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\6502 ROR Test Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Documents\GitHub\6502-ROR-Test-Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06902363-5A7A-46A2-9198-E964500D1A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102A87CB-0291-47DC-9F58-F10A7B97A090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BF81D018-8F28-45BB-9BEF-AA2F6781CE47}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{BF81D018-8F28-45BB-9BEF-AA2F6781CE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,15 +125,9 @@
     <t xml:space="preserve">0603 LED </t>
   </si>
   <si>
-    <t>https://www.lcsc.com/product-detail/Light-Emitting-Diodes-LED_Everlight-Elec-19-217-R6C-AL1M2VY-3T_C72044.html</t>
-  </si>
-  <si>
     <t>2N7002</t>
   </si>
   <si>
-    <t>https://www.mouser.com/ProductDetail/Nexperia/2N7002NXBKR?qs=%252B6g0mu59x7J2ddJstTJGkQ%3D%3D</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/meritek/MA1206XR104K101/20116994</t>
   </si>
   <si>
@@ -147,6 +141,12 @@
   </si>
   <si>
     <t>SN74HCS74DR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/harvatek-corporation/B19Y1USD-20C000113U1930/16602930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/ProductDetail/Nexperia/2N7002NXBKR?qs=%252B6g0mu59x7J2ddJstTJGkQ%3D%3D </t>
   </si>
 </sst>
 </file>
@@ -573,17 +573,17 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="164.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" customWidth="1"/>
+    <col min="2" max="2" width="14.15234375" customWidth="1"/>
+    <col min="3" max="3" width="164.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -605,7 +605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -629,55 +629,55 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -691,7 +691,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,7 +702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>6502</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -733,19 +733,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -756,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -767,24 +767,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="11"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -806,14 +806,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
@@ -824,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="s">
         <v>17</v>
       </c>
@@ -852,8 +852,10 @@
     <hyperlink ref="C2" r:id="rId7" xr:uid="{8EF5C484-2D5A-46E3-BCFB-10158E34359E}"/>
     <hyperlink ref="C7" r:id="rId8" xr:uid="{509E168D-67FD-4FCB-B509-BFAC458BF25B}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{63C365A3-7262-4AD6-AC3C-56BD45A3F931}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{27A66306-D510-415C-A70A-54DD2FEDEC24}"/>
+    <hyperlink ref="C5" r:id="rId11" xr:uid="{AD1D1E6B-D81F-4672-8BDD-965D3856E9D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>